--- a/biology/Botanique/Amyris_guianensis/Amyris_guianensis.xlsx
+++ b/biology/Botanique/Amyris_guianensis/Amyris_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amyris guianensis est une espèce d'arbre de Guyane, et appartenant à la famille des Rutaceae (familles des agrumes).
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon jamais étudié, reste classé dans le genre Amyris, auquel il n'appartient probablement pas.
 </t>
@@ -542,9 +556,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amyris guianensis est une espèce déterminante ZNIEFF en Guyane[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amyris guianensis est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[2] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « AMYRIS (Guianenſis). foliis impari-pinnatis, foliolis bijugis, ovato-oblongis i fructu luteo racemoſo.
 Terebinthus maxima, pinnis paucioribus, majoribus atque rotundioribus 5 fructu racemoſo, ſparſo. Sloan. Hifl. Jam. z. pag. 90. tab. 199. fig. 3. »
 « Cet arbre rend par l'inciſion de ſon écorce, un ſuc balſamique qui, étant deſſéché, devient une réſine rouſſâtre dont l'odeur approche de celle du citron. Il croît dans les forêts du quartier d'Aroura dans la Guiane. 
